--- a/task.xlsx
+++ b/task.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView windowWidth="21495" windowHeight="10350"/>
   </bookViews>
   <sheets>
     <sheet name="app" sheetId="1" r:id="rId1"/>
@@ -13,117 +13,119 @@
     <sheet name="system" sheetId="4" r:id="rId4"/>
     <sheet name="core——jar" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86">
   <si>
     <t>user-service</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户认证服务</t>
   </si>
   <si>
     <t>陆征</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user-edit-service</t>
+  </si>
+  <si>
+    <t>用户编辑服务</t>
+  </si>
+  <si>
+    <t>address-service</t>
+  </si>
+  <si>
+    <t>地址服务</t>
+  </si>
+  <si>
+    <t>account-service</t>
+  </si>
+  <si>
+    <t>账户会员服务</t>
+  </si>
+  <si>
+    <t>seller-info-service</t>
+  </si>
+  <si>
+    <t>店铺信息</t>
+  </si>
+  <si>
+    <t>王金广</t>
+  </si>
+  <si>
+    <t>payment-service</t>
+  </si>
+  <si>
+    <t>支付组件</t>
   </si>
   <si>
     <t>shopping-cart-service</t>
   </si>
   <si>
     <t>购物车服务</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户认证服务</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>张广宇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>order-service</t>
+  </si>
+  <si>
+    <t>订单服务</t>
   </si>
   <si>
     <t>info-version-service</t>
   </si>
   <si>
     <t>信息版本服务</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>钟宪宇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户编辑服务</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>user-edit-service</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单服务</t>
-  </si>
-  <si>
-    <t>订单服务</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>order-service</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>address-service</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地址服务</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>seller-info-service</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>店铺信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>discount-Service</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>折扣 促销服务</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>account-service</t>
-  </si>
-  <si>
-    <t>账户会员服务</t>
-  </si>
-  <si>
-    <t>payment-service</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>支付组件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inventory-service</t>
+  </si>
+  <si>
+    <t>库存服务</t>
+  </si>
+  <si>
+    <t>朱广源</t>
+  </si>
+  <si>
+    <t>promotion-service</t>
+  </si>
+  <si>
+    <t>促销服务Base</t>
+  </si>
+  <si>
+    <t>Search-service</t>
+  </si>
+  <si>
+    <t>搜索服务</t>
+  </si>
+  <si>
+    <t>刘树友</t>
+  </si>
+  <si>
+    <t>concern-Service</t>
+  </si>
+  <si>
+    <t>互动服务</t>
   </si>
   <si>
     <t>tracks-service</t>
   </si>
   <si>
-    <t>concern-Service</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>互动服务</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>足迹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Cms Search-service</t>
@@ -132,33 +134,6 @@
     <t>CMS搜索服务</t>
   </si>
   <si>
-    <t>inventory-service</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>库存服务</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>promotion-service</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>促销服务Base</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Search-service</t>
-  </si>
-  <si>
-    <t>Search-service</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>搜索服务</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Seller-service</t>
   </si>
   <si>
@@ -180,10 +155,6 @@
     <t>Order-mgr-service</t>
   </si>
   <si>
-    <t>Order-mgr-service</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Catalog-mgr-service</t>
   </si>
   <si>
@@ -208,6 +179,9 @@
     <t>权限服务</t>
   </si>
   <si>
+    <t>金广</t>
+  </si>
+  <si>
     <t>employee-service</t>
   </si>
   <si>
@@ -302,61 +276,380 @@
   </si>
   <si>
     <t>搜索BASE服务</t>
-  </si>
-  <si>
-    <t>朱广源</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>王金广</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>陆征</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>钟宪宇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张广宇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>刘树友</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -364,26 +657,314 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -673,264 +1254,266 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A2:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="28" customWidth="1"/>
     <col min="2" max="2" width="17.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B8" t="s">
         <v>15</v>
       </c>
-      <c r="C4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" t="s">
         <v>20</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C10" t="s">
         <v>21</v>
       </c>
-      <c r="C5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A7" s="1" t="s">
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B11" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="C11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A12" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="C14" t="s">
         <v>31</v>
       </c>
-      <c r="C12" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A13" s="1" t="s">
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B15" t="s">
         <v>33</v>
       </c>
-      <c r="C13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A14" s="1" t="s">
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" t="s">
         <v>35</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="C16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
         <v>36</v>
       </c>
-      <c r="C14" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A15" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A17" t="s">
-        <v>28</v>
-      </c>
       <c r="B17" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C17" t="s">
-        <v>90</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
   <sortState ref="A2:C17">
     <sortCondition ref="C1"/>
   </sortState>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="23.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.875" customWidth="1"/>
+    <col min="2" max="2" width="14.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>45</v>
       </c>
@@ -938,21 +1521,21 @@
         <v>46</v>
       </c>
       <c r="C5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C6" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C6" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>49</v>
       </c>
@@ -960,74 +1543,75 @@
         <v>50</v>
       </c>
       <c r="C7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C8" t="s">
-        <v>87</v>
+      <c r="C8" s="1" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="25.125" customWidth="1"/>
-    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>47</v>
       </c>
@@ -1035,21 +1619,21 @@
         <v>48</v>
       </c>
       <c r="C4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>45</v>
       </c>
@@ -1057,232 +1641,234 @@
         <v>46</v>
       </c>
       <c r="C6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" t="s">
         <v>41</v>
       </c>
-      <c r="B7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
-        <v>59</v>
-      </c>
-      <c r="B8" t="s">
-        <v>60</v>
-      </c>
-      <c r="C8" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
-        <v>39</v>
-      </c>
-      <c r="B9" t="s">
-        <v>40</v>
-      </c>
       <c r="C9" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B10" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C10" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C11" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
   <sortState ref="A1:C11">
     <sortCondition ref="C1"/>
   </sortState>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="21.5" customWidth="1"/>
-    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C4" t="s">
-        <v>90</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="25" customWidth="1"/>
-    <col min="2" max="2" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>83</v>
+      </c>
+      <c r="B7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>82</v>
-      </c>
-      <c r="B7" t="s">
-        <v>83</v>
-      </c>
-      <c r="C7" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B8" t="s">
-        <v>84</v>
-      </c>
       <c r="C8" t="s">
-        <v>90</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/task.xlsx
+++ b/task.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21495" windowHeight="10350"/>
+    <workbookView windowWidth="28695" windowHeight="13050" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="app" sheetId="1" r:id="rId1"/>
@@ -12,13 +12,14 @@
     <sheet name="运营" sheetId="3" r:id="rId3"/>
     <sheet name="system" sheetId="4" r:id="rId4"/>
     <sheet name="core——jar" sheetId="5" r:id="rId5"/>
+    <sheet name="阶段任务" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117">
   <si>
     <t>user-service</t>
   </si>
@@ -276,6 +277,99 @@
   </si>
   <si>
     <t>搜索BASE服务</t>
+  </si>
+  <si>
+    <t>10.24日任务</t>
+  </si>
+  <si>
+    <t>目标</t>
+  </si>
+  <si>
+    <t>细节</t>
+  </si>
+  <si>
+    <t>状态</t>
+  </si>
+  <si>
+    <t>接口负责人</t>
+  </si>
+  <si>
+    <t>页面负责人</t>
+  </si>
+  <si>
+    <t>商户端商品模块</t>
+  </si>
+  <si>
+    <t>通过浏览器可以操作商品模块功能</t>
+  </si>
+  <si>
+    <t>商品发布</t>
+  </si>
+  <si>
+    <t>未完成</t>
+  </si>
+  <si>
+    <t>广源/陆征</t>
+  </si>
+  <si>
+    <t>宪宇/林军</t>
+  </si>
+  <si>
+    <t>商品列表</t>
+  </si>
+  <si>
+    <t>商品上下架</t>
+  </si>
+  <si>
+    <t>商品信息编辑</t>
+  </si>
+  <si>
+    <t>商户端订单模块</t>
+  </si>
+  <si>
+    <t>通过浏览器可以操作订单模块功能</t>
+  </si>
+  <si>
+    <t>订单列表</t>
+  </si>
+  <si>
+    <t>广宇/金广</t>
+  </si>
+  <si>
+    <t>订单详情</t>
+  </si>
+  <si>
+    <t>订单发货状态变更</t>
+  </si>
+  <si>
+    <t>APP端用户信息模块</t>
+  </si>
+  <si>
+    <t>通过浏览器可以注册,编辑，用户信息</t>
+  </si>
+  <si>
+    <t>用户注册</t>
+  </si>
+  <si>
+    <t>完善用户信息</t>
+  </si>
+  <si>
+    <t>用户信息编辑</t>
+  </si>
+  <si>
+    <t>用户收货地址</t>
+  </si>
+  <si>
+    <t>商户端商户信息模块</t>
+  </si>
+  <si>
+    <t>商户注册</t>
+  </si>
+  <si>
+    <t>商户信息编辑</t>
+  </si>
+  <si>
+    <t>商户权限(Delay风险)</t>
   </si>
 </sst>
 </file>
@@ -283,12 +377,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -305,27 +399,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -333,15 +413,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -354,6 +428,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -362,9 +467,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -386,8 +490,22 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -401,48 +519,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -454,8 +533,16 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -464,187 +551,193 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -658,17 +751,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -688,44 +777,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -747,164 +803,205 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1258,7 +1355,7 @@
   <sheetPr/>
   <dimension ref="A2:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -1269,54 +1366,54 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C6" t="s">
@@ -1324,10 +1421,10 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C7" t="s">
@@ -1346,7 +1443,7 @@
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B9" t="s">
@@ -1368,10 +1465,10 @@
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C11" t="s">
@@ -1379,10 +1476,10 @@
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="4" t="s">
         <v>25</v>
       </c>
       <c r="C12" t="s">
@@ -1390,10 +1487,10 @@
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="4" t="s">
         <v>28</v>
       </c>
       <c r="C13" t="s">
@@ -1401,10 +1498,10 @@
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="4" t="s">
         <v>30</v>
       </c>
       <c r="C14" t="s">
@@ -1412,7 +1509,7 @@
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="4" t="s">
         <v>32</v>
       </c>
       <c r="B15" t="s">
@@ -1470,13 +1567,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1503,7 +1600,7 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="4" t="s">
         <v>44</v>
       </c>
       <c r="B4" t="s">
@@ -1525,13 +1622,13 @@
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="3" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1547,13 +1644,13 @@
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="3" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1871,4 +1968,281 @@
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:T15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="19.25" customWidth="1"/>
+    <col min="2" max="2" width="36.375" customWidth="1"/>
+    <col min="3" max="3" width="33.75" customWidth="1"/>
+    <col min="4" max="4" width="10.75" customWidth="1"/>
+    <col min="5" max="5" width="15.25" customWidth="1"/>
+    <col min="6" max="6" width="17.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20">
+      <c r="A1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D5" t="s">
+        <v>95</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D6" t="s">
+        <v>95</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" t="s">
+        <v>105</v>
+      </c>
+      <c r="D7" t="s">
+        <v>95</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" t="s">
+        <v>106</v>
+      </c>
+      <c r="D8" t="s">
+        <v>95</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C9" t="s">
+        <v>109</v>
+      </c>
+      <c r="D9" t="s">
+        <v>95</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" t="s">
+        <v>110</v>
+      </c>
+      <c r="D10" t="s">
+        <v>95</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" t="s">
+        <v>111</v>
+      </c>
+      <c r="D11" t="s">
+        <v>95</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" t="s">
+        <v>112</v>
+      </c>
+      <c r="D12" t="s">
+        <v>95</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C13" t="s">
+        <v>114</v>
+      </c>
+      <c r="D13" t="s">
+        <v>95</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" t="s">
+        <v>115</v>
+      </c>
+      <c r="D14" t="s">
+        <v>95</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" t="s">
+        <v>116</v>
+      </c>
+      <c r="D15" t="s">
+        <v>95</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="E2:E5"/>
+    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="E9:E12"/>
+    <mergeCell ref="E13:E15"/>
+    <mergeCell ref="F2:F5"/>
+    <mergeCell ref="F6:F8"/>
+    <mergeCell ref="F9:F12"/>
+    <mergeCell ref="F13:F15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/task.xlsx
+++ b/task.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21840" windowHeight="13050" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="app" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="117">
   <si>
     <t>user-service</t>
   </si>
@@ -375,14 +375,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -398,151 +392,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -551,198 +407,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="3" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -750,258 +420,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1009,59 +434,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1351,87 +737,86 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="28" customWidth="1"/>
     <col min="2" max="2" width="17.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="4" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="4" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -1442,8 +827,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="4" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B9" t="s">
@@ -1453,7 +838,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -1464,52 +849,52 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="4" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A11" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>23</v>
       </c>
       <c r="C11" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="4" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A12" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C12" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="4" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A13" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C13" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="4" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A14" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C14" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="4" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A15" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B15" t="s">
@@ -1519,7 +904,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>34</v>
       </c>
@@ -1530,7 +915,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>36</v>
       </c>
@@ -1545,39 +930,38 @@
   <sortState ref="A2:C17">
     <sortCondition ref="C1"/>
   </sortState>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="23.875" customWidth="1"/>
     <col min="2" max="2" width="14.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -1588,7 +972,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>42</v>
       </c>
@@ -1599,8 +983,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" s="3" t="s">
         <v>44</v>
       </c>
       <c r="B4" t="s">
@@ -1610,7 +994,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>45</v>
       </c>
@@ -1621,18 +1005,18 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>49</v>
       </c>
@@ -1643,39 +1027,38 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="3" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>53</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="25.125" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>54</v>
       </c>
@@ -1686,7 +1069,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>56</v>
       </c>
@@ -1697,7 +1080,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>58</v>
       </c>
@@ -1708,7 +1091,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>47</v>
       </c>
@@ -1719,7 +1102,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>44</v>
       </c>
@@ -1730,7 +1113,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>45</v>
       </c>
@@ -1741,7 +1124,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>42</v>
       </c>
@@ -1752,7 +1135,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>60</v>
       </c>
@@ -1763,7 +1146,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>40</v>
       </c>
@@ -1774,7 +1157,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>62</v>
       </c>
@@ -1785,7 +1168,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>64</v>
       </c>
@@ -1797,27 +1180,26 @@
   <sortState ref="A1:C11">
     <sortCondition ref="C1"/>
   </sortState>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="21.5" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>65</v>
       </c>
@@ -1828,7 +1210,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>67</v>
       </c>
@@ -1839,7 +1221,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>69</v>
       </c>
@@ -1850,7 +1232,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>71</v>
       </c>
@@ -1862,27 +1244,26 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="25" customWidth="1"/>
     <col min="2" max="2" width="13.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>73</v>
       </c>
@@ -1893,7 +1274,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>75</v>
       </c>
@@ -1904,7 +1285,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>77</v>
       </c>
@@ -1912,7 +1293,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>78</v>
       </c>
@@ -1920,7 +1301,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>79</v>
       </c>
@@ -1931,7 +1312,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>81</v>
       </c>
@@ -1942,7 +1323,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>83</v>
       </c>
@@ -1953,7 +1334,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>29</v>
       </c>
@@ -1965,21 +1346,20 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="19.25" customWidth="1"/>
     <col min="2" max="2" width="36.375" customWidth="1"/>
@@ -1989,7 +1369,7 @@
     <col min="6" max="6" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>86</v>
       </c>
@@ -2023,11 +1403,11 @@
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A2" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="5" t="s">
         <v>93</v>
       </c>
       <c r="C2" t="s">
@@ -2036,54 +1416,54 @@
       <c r="D2" t="s">
         <v>95</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="5" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
       <c r="C3" t="s">
         <v>98</v>
       </c>
       <c r="D3" t="s">
         <v>95</v>
       </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
       <c r="C4" t="s">
         <v>99</v>
       </c>
       <c r="D4" t="s">
         <v>95</v>
       </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
       <c r="C5" t="s">
         <v>100</v>
       </c>
       <c r="D5" t="s">
         <v>95</v>
       </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="2" t="s">
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A6" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="5" t="s">
         <v>102</v>
       </c>
       <c r="C6" t="s">
@@ -2092,42 +1472,42 @@
       <c r="D6" t="s">
         <v>95</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="5" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
       <c r="C7" t="s">
         <v>105</v>
       </c>
       <c r="D7" t="s">
         <v>95</v>
       </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
       <c r="C8" t="s">
         <v>106</v>
       </c>
       <c r="D8" t="s">
         <v>95</v>
       </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="2" t="s">
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A9" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="5" t="s">
         <v>108</v>
       </c>
       <c r="C9" t="s">
@@ -2136,54 +1516,54 @@
       <c r="D9" t="s">
         <v>95</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="5" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
       <c r="C10" t="s">
         <v>110</v>
       </c>
       <c r="D10" t="s">
         <v>95</v>
       </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
       <c r="C11" t="s">
         <v>111</v>
       </c>
       <c r="D11" t="s">
         <v>95</v>
       </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
       <c r="C12" t="s">
         <v>112</v>
       </c>
       <c r="D12" t="s">
         <v>95</v>
       </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="2" t="s">
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A13" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="5" t="s">
         <v>108</v>
       </c>
       <c r="C13" t="s">
@@ -2192,39 +1572,47 @@
       <c r="D13" t="s">
         <v>95</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F13" s="5" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
       <c r="C14" t="s">
         <v>115</v>
       </c>
       <c r="D14" t="s">
         <v>95</v>
       </c>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
       <c r="C15" t="s">
         <v>116</v>
       </c>
       <c r="D15" t="s">
         <v>95</v>
       </c>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="E2:E5"/>
+    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="E9:E12"/>
+    <mergeCell ref="E13:E15"/>
+    <mergeCell ref="F2:F5"/>
+    <mergeCell ref="F6:F8"/>
+    <mergeCell ref="F9:F12"/>
+    <mergeCell ref="F13:F15"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="A9:A12"/>
@@ -2233,16 +1621,8 @@
     <mergeCell ref="B6:B8"/>
     <mergeCell ref="B9:B12"/>
     <mergeCell ref="B13:B15"/>
-    <mergeCell ref="E2:E5"/>
-    <mergeCell ref="E6:E8"/>
-    <mergeCell ref="E9:E12"/>
-    <mergeCell ref="E13:E15"/>
-    <mergeCell ref="F2:F5"/>
-    <mergeCell ref="F6:F8"/>
-    <mergeCell ref="F9:F12"/>
-    <mergeCell ref="F13:F15"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>